--- a/assets/test.xlsx
+++ b/assets/test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xinqi\StudioProjects\attendance\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6F19159-DB87-4042-A75F-737AFEA11504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA5BB4E-BC93-4C9B-A7DD-569519BFE07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{C2D657E6-BEB5-42ED-9126-74E18D3A4070}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Code</t>
   </si>
@@ -50,10 +51,22 @@
     <t>Date</t>
   </si>
   <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
     <t>Check In</t>
   </si>
   <si>
     <t>Check Out</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
   </si>
 </sst>
 </file>
@@ -405,32 +418,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88E72FF-753C-40CD-8A1D-32950ECC2523}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>123456789</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637A403F-8D60-4FEC-8943-13415C09A3EF}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/assets/test.xlsx
+++ b/assets/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xinqi\StudioProjects\attendance\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA5BB4E-BC93-4C9B-A7DD-569519BFE07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAAFCA0-8A48-47D3-8BCD-46C96BE6E9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{C2D657E6-BEB5-42ED-9126-74E18D3A4070}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="10060" xr2:uid="{C2D657E6-BEB5-42ED-9126-74E18D3A4070}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Code</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Phone Number</t>
+  </si>
+  <si>
+    <t>123-456-7890</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -453,8 +456,8 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>123456789</v>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -464,28 +467,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637A403F-8D60-4FEC-8943-13415C09A3EF}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/assets/test.xlsx
+++ b/assets/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xinqi\StudioProjects\attendance\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAAFCA0-8A48-47D3-8BCD-46C96BE6E9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245F221E-F09A-49D0-843F-6D340A75F104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="10060" xr2:uid="{C2D657E6-BEB5-42ED-9126-74E18D3A4070}"/>
+    <workbookView xWindow="2110" yWindow="3310" windowWidth="19200" windowHeight="10060" xr2:uid="{C2D657E6-BEB5-42ED-9126-74E18D3A4070}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Code</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>123-456-7890</t>
+  </si>
+  <si>
+    <t>2022MC06Sophia</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>Chen</t>
+  </si>
+  <si>
+    <t>123-412-4325</t>
   </si>
 </sst>
 </file>
@@ -421,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88E72FF-753C-40CD-8A1D-32950ECC2523}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -458,6 +470,20 @@
       </c>
       <c r="D2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/assets/test.xlsx
+++ b/assets/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xinqi\StudioProjects\attendance\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245F221E-F09A-49D0-843F-6D340A75F104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051DE4BE-69DC-4B20-8FF0-529DD9D02BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2110" yWindow="3310" windowWidth="19200" windowHeight="10060" xr2:uid="{C2D657E6-BEB5-42ED-9126-74E18D3A4070}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="10060" xr2:uid="{C2D657E6-BEB5-42ED-9126-74E18D3A4070}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Code</t>
   </si>
@@ -82,6 +82,48 @@
   </si>
   <si>
     <t>123-412-4325</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Johnny</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>John2</t>
+  </si>
+  <si>
+    <t>fssfsd</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>ads</t>
+  </si>
+  <si>
+    <t>asdafaf</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>afsd</t>
+  </si>
+  <si>
+    <t>afsdf</t>
+  </si>
+  <si>
+    <t>afdsf</t>
   </si>
 </sst>
 </file>
@@ -433,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88E72FF-753C-40CD-8A1D-32950ECC2523}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -484,6 +526,62 @@
       </c>
       <c r="D3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>324412432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>421234324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
